--- a/Code/Results/Cases/Case_4_141/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_141/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.29625336990202</v>
+        <v>13.58242506653322</v>
       </c>
       <c r="C2">
-        <v>13.64055689695947</v>
+        <v>11.17072946123901</v>
       </c>
       <c r="D2">
-        <v>7.045030139746611</v>
+        <v>6.035509846248532</v>
       </c>
       <c r="E2">
-        <v>12.32131925485837</v>
+        <v>9.992111519605857</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.109174515805514</v>
+        <v>3.715378354171635</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.35595138662583</v>
+        <v>31.20382436938653</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.86988724229161</v>
+        <v>14.77870675430539</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.00815624626151</v>
+        <v>16.44242788566918</v>
       </c>
       <c r="N2">
-        <v>17.24021987300596</v>
+        <v>23.24136519306006</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.19471483506904</v>
+        <v>13.35983330404993</v>
       </c>
       <c r="C3">
-        <v>12.77219696249341</v>
+        <v>10.92935357479295</v>
       </c>
       <c r="D3">
-        <v>6.542142443840322</v>
+        <v>5.926274958308508</v>
       </c>
       <c r="E3">
-        <v>11.41934128145307</v>
+        <v>9.784645733394083</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.119628541750704</v>
+        <v>3.718959085805852</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.6644277422608</v>
+        <v>31.089795164705</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.98132310953538</v>
+        <v>14.61237133735311</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.94350000250385</v>
+        <v>16.29035581603003</v>
       </c>
       <c r="N3">
-        <v>17.19603962854135</v>
+        <v>23.23816691146897</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.56907514504782</v>
+        <v>13.22583735744279</v>
       </c>
       <c r="C4">
-        <v>12.22238169484424</v>
+        <v>10.7820280801196</v>
       </c>
       <c r="D4">
-        <v>6.239795914395561</v>
+        <v>5.860112251089164</v>
       </c>
       <c r="E4">
-        <v>10.84744890105312</v>
+        <v>9.658427016135146</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.126186366064804</v>
+        <v>3.721270185053882</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.24945912722059</v>
+        <v>31.02468429041672</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.43672484063909</v>
+        <v>14.5137719216285</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.3957476367136</v>
+        <v>16.20108916562506</v>
       </c>
       <c r="N4">
-        <v>17.17496076242851</v>
+        <v>23.23788174295171</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.31349342401727</v>
+        <v>13.17198345065281</v>
       </c>
       <c r="C5">
-        <v>11.99424128499876</v>
+        <v>10.72230469026524</v>
       </c>
       <c r="D5">
-        <v>6.125635162693244</v>
+        <v>5.833417559173391</v>
       </c>
       <c r="E5">
-        <v>10.64125672608598</v>
+        <v>9.607362030171597</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.128896281972632</v>
+        <v>3.72224037930883</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.08280649389338</v>
+        <v>30.999395496709</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.21154321600434</v>
+        <v>14.4745251740185</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.17007217239591</v>
+        <v>16.16578042985412</v>
       </c>
       <c r="N5">
-        <v>17.16781582614477</v>
+        <v>23.23818727621689</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.27075271365975</v>
+        <v>13.16308862294391</v>
       </c>
       <c r="C6">
-        <v>11.95611582906496</v>
+        <v>10.71240926759761</v>
       </c>
       <c r="D6">
-        <v>6.106553626091917</v>
+        <v>5.829002192160041</v>
       </c>
       <c r="E6">
-        <v>10.60680154219393</v>
+        <v>9.598907341773497</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.129348601355841</v>
+        <v>3.722403197986848</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.0552829456735</v>
+        <v>30.99527177725687</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.1739617149678</v>
+        <v>14.46806593546523</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.13245697903199</v>
+        <v>16.15998294970997</v>
       </c>
       <c r="N6">
-        <v>17.16671454759029</v>
+        <v>23.23826347014861</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.56564860948705</v>
+        <v>13.22510792442555</v>
       </c>
       <c r="C7">
-        <v>12.21932129101455</v>
+        <v>10.78122124058966</v>
       </c>
       <c r="D7">
-        <v>6.238264753951197</v>
+        <v>5.859751104257461</v>
       </c>
       <c r="E7">
-        <v>10.84468275229165</v>
+        <v>9.657736735069362</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.12622275761925</v>
+        <v>3.721283154288592</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.24720162560735</v>
+        <v>31.02433818445372</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.43370086215277</v>
+        <v>14.51323878898742</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.39271377045356</v>
+        <v>16.20060860948099</v>
       </c>
       <c r="N7">
-        <v>17.17485865010807</v>
+        <v>23.23788415648728</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.92325566675007</v>
+        <v>13.50516680330642</v>
       </c>
       <c r="C8">
-        <v>13.34464239620792</v>
+        <v>11.08737486396151</v>
       </c>
       <c r="D8">
-        <v>6.874819641164907</v>
+        <v>5.997680537203114</v>
       </c>
       <c r="E8">
-        <v>12.01564518711533</v>
+        <v>9.920381249492511</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.112751840624224</v>
+        <v>3.716589703963101</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.11552955534808</v>
+        <v>31.16349659868983</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.55082755597681</v>
+        <v>14.72064924004343</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.62084890364559</v>
+        <v>16.38916324400694</v>
       </c>
       <c r="N8">
-        <v>17.2236840731794</v>
+        <v>23.23991383635909</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.49368251432563</v>
+        <v>14.07215244762709</v>
       </c>
       <c r="C9">
-        <v>15.42582854871839</v>
+        <v>11.69079095301951</v>
       </c>
       <c r="D9">
-        <v>8.04657107526471</v>
+        <v>6.273660504996846</v>
       </c>
       <c r="E9">
-        <v>14.12842540250998</v>
+        <v>10.44134639904463</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.087309178617458</v>
+        <v>3.708273618556911</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.89422467252325</v>
+        <v>31.47473803112514</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.01448432335261</v>
+        <v>15.1533128585997</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.29214568179195</v>
+        <v>16.78982985850837</v>
       </c>
       <c r="N9">
-        <v>17.37110639036497</v>
+        <v>23.25722896018469</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.23452339583357</v>
+        <v>14.49495908945291</v>
       </c>
       <c r="C10">
-        <v>16.96178497455724</v>
+        <v>12.1309010424839</v>
       </c>
       <c r="D10">
-        <v>8.838919871648658</v>
+        <v>6.477528467507958</v>
       </c>
       <c r="E10">
-        <v>15.56925917864231</v>
+        <v>10.82337164632979</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.069008753162883</v>
+        <v>3.702697980586468</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.24834134664202</v>
+        <v>31.72596768662151</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.71417721347531</v>
+        <v>15.48410547554685</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.10576055765156</v>
+        <v>17.10068152782674</v>
       </c>
       <c r="N10">
-        <v>17.51650921052878</v>
+        <v>23.27810216554676</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.99683996678219</v>
+        <v>14.68770575531689</v>
       </c>
       <c r="C11">
-        <v>17.63900215435406</v>
+        <v>12.32941563050344</v>
       </c>
       <c r="D11">
-        <v>9.185669255504248</v>
+        <v>6.570055200391582</v>
       </c>
       <c r="E11">
-        <v>16.20321912109388</v>
+        <v>10.99614034561774</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.060716872758563</v>
+        <v>3.700275973756063</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>29.87547083744933</v>
+        <v>31.84495709523587</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.4588713924168</v>
+        <v>15.63676306509198</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.90150360412973</v>
+        <v>17.24514370095895</v>
       </c>
       <c r="N11">
-        <v>17.59210034309072</v>
+        <v>23.28937154302067</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.28148509096978</v>
+        <v>14.76067600407725</v>
       </c>
       <c r="C12">
-        <v>17.89257259006685</v>
+        <v>12.40426664398811</v>
       </c>
       <c r="D12">
-        <v>9.315114322423232</v>
+        <v>6.605025538141324</v>
       </c>
       <c r="E12">
-        <v>16.44044909156798</v>
+        <v>11.06134951490199</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.057576741819487</v>
+        <v>3.699375155080495</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30.11466868575147</v>
+        <v>31.89067273564956</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.73701425515228</v>
+        <v>15.69483045016303</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.19890664443223</v>
+        <v>17.30024110637907</v>
       </c>
       <c r="N12">
-        <v>17.62221363233789</v>
+        <v>23.29389412181357</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.2203568300094</v>
+        <v>14.74496259506959</v>
       </c>
       <c r="C13">
-        <v>17.83808578543221</v>
+        <v>12.38816166671574</v>
       </c>
       <c r="D13">
-        <v>9.287316947242855</v>
+        <v>6.597497621511731</v>
       </c>
       <c r="E13">
-        <v>16.38947917803977</v>
+        <v>11.04731614563717</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.05825311868685</v>
+        <v>3.699568437316376</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>30.06307438772347</v>
+        <v>31.88079815851081</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.67727855887768</v>
+        <v>15.68231392451523</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.13502538034054</v>
+        <v>17.2883581723601</v>
       </c>
       <c r="N13">
-        <v>17.61565976056743</v>
+        <v>23.29290875825188</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.02033719310009</v>
+        <v>14.69370987187053</v>
       </c>
       <c r="C14">
-        <v>17.65991984011831</v>
+        <v>12.3355805578378</v>
       </c>
       <c r="D14">
-        <v>9.196355422594531</v>
+        <v>6.57293378927203</v>
       </c>
       <c r="E14">
-        <v>16.2227914685576</v>
+        <v>11.00150982203092</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.060458566431218</v>
+        <v>3.700201535927572</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>29.89511452742503</v>
+        <v>31.84870509787449</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.48183017192115</v>
+        <v>15.64153541565759</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.92604810182097</v>
+        <v>17.24966899470029</v>
       </c>
       <c r="N14">
-        <v>17.59454715015892</v>
+        <v>23.28973850579132</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.89730218185035</v>
+        <v>14.66231140234343</v>
       </c>
       <c r="C15">
-        <v>17.5504204042794</v>
+        <v>12.30332890641283</v>
       </c>
       <c r="D15">
-        <v>9.140399862846396</v>
+        <v>6.557877875174434</v>
       </c>
       <c r="E15">
-        <v>16.12032902269408</v>
+        <v>10.97342221576212</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.061809286351685</v>
+        <v>3.700591452310842</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>29.79246221097139</v>
+        <v>31.82913212762606</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.36161783858648</v>
+        <v>15.61658956947484</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.79754098121647</v>
+        <v>17.22602051295473</v>
       </c>
       <c r="N15">
-        <v>17.58181303584719</v>
+        <v>23.28782985617356</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.18412747390992</v>
+        <v>14.48236418724899</v>
       </c>
       <c r="C16">
-        <v>16.91711210438856</v>
+        <v>12.11788673706325</v>
       </c>
       <c r="D16">
-        <v>8.815992364520762</v>
+        <v>6.4714741440949</v>
       </c>
       <c r="E16">
-        <v>15.52741696975264</v>
+        <v>10.81205441551968</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.069550905632264</v>
+        <v>3.702858557057346</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.20758989472718</v>
+        <v>31.71828446208074</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.66495615977005</v>
+        <v>15.47416815712499</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.0531911031807</v>
+        <v>17.09129808124808</v>
       </c>
       <c r="N16">
-        <v>17.51177004207286</v>
+        <v>23.27740138586913</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.73919021463497</v>
+        <v>14.37202125942325</v>
       </c>
       <c r="C17">
-        <v>16.52323253450784</v>
+        <v>12.00363273595752</v>
       </c>
       <c r="D17">
-        <v>8.613544466628545</v>
+        <v>6.418386810633543</v>
       </c>
       <c r="E17">
-        <v>15.15835220195625</v>
+        <v>10.71275026899087</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.074305299137368</v>
+        <v>3.704278572873202</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.85170979518165</v>
+        <v>31.65147426120604</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.23043945034012</v>
+        <v>15.38731669001085</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.58924814165018</v>
+        <v>17.00939958000737</v>
       </c>
       <c r="N17">
-        <v>17.4713086163005</v>
+        <v>23.27145826298138</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.48047256012618</v>
+        <v>14.30859798857735</v>
       </c>
       <c r="C18">
-        <v>16.2946449550141</v>
+        <v>11.93776184308299</v>
       </c>
       <c r="D18">
-        <v>8.495805726312861</v>
+        <v>6.387834358138736</v>
       </c>
       <c r="E18">
-        <v>14.94403704069643</v>
+        <v>10.65554133300903</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.077043344353574</v>
+        <v>3.705106100535227</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.64805546900464</v>
+        <v>31.61349077953394</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.97781782918257</v>
+        <v>15.33757028799079</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.31962571712817</v>
+        <v>16.96258402555658</v>
       </c>
       <c r="N18">
-        <v>17.44891685831107</v>
+        <v>23.26820692311336</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.39238754350227</v>
+        <v>14.28713376521877</v>
       </c>
       <c r="C19">
-        <v>16.21689311041026</v>
+        <v>11.91543494030179</v>
       </c>
       <c r="D19">
-        <v>8.45571572086558</v>
+        <v>6.377487874417449</v>
       </c>
       <c r="E19">
-        <v>14.87111625072703</v>
+        <v>10.63615774736265</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.077971130844472</v>
+        <v>3.705388140502738</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.57927719049967</v>
+        <v>31.60070705406089</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.89181400088385</v>
+        <v>15.32076442935258</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.22785156604769</v>
+        <v>16.94678435002463</v>
       </c>
       <c r="N19">
-        <v>17.44148290009182</v>
+        <v>23.26713475400591</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.78684292637962</v>
+        <v>14.38376356695482</v>
       </c>
       <c r="C20">
-        <v>16.56537123055436</v>
+        <v>12.01581189736812</v>
       </c>
       <c r="D20">
-        <v>8.635228786200413</v>
+        <v>6.424040184720166</v>
       </c>
       <c r="E20">
-        <v>15.19784906445276</v>
+        <v>10.72333137533005</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.073798863089179</v>
+        <v>3.704126295656343</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.88948566681448</v>
+        <v>31.65854050883289</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.27697218022023</v>
+        <v>15.39654101433374</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.63892089253418</v>
+        <v>17.01808810585706</v>
       </c>
       <c r="N20">
-        <v>17.47552377002233</v>
+        <v>23.272073635893</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.07919514293908</v>
+        <v>14.70876515243896</v>
       </c>
       <c r="C21">
-        <v>17.71232767701097</v>
+        <v>12.35103424961367</v>
       </c>
       <c r="D21">
-        <v>9.223122624372923</v>
+        <v>6.580150899842055</v>
       </c>
       <c r="E21">
-        <v>16.27182651020133</v>
+        <v>11.01497059959261</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.059810820337535</v>
+        <v>3.700015136814427</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>29.94440062847923</v>
+        <v>31.85811393917853</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.53934068991011</v>
+        <v>15.65350644421695</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.98753396068136</v>
+        <v>17.26102265822023</v>
       </c>
       <c r="N21">
-        <v>17.60070692549974</v>
+        <v>23.29066276254567</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.9004748367666</v>
+        <v>14.92102933905531</v>
       </c>
       <c r="C22">
-        <v>18.44528883802215</v>
+        <v>12.5682106855194</v>
       </c>
       <c r="D22">
-        <v>9.596554974211486</v>
+        <v>6.681768813560309</v>
       </c>
       <c r="E22">
-        <v>16.95733885093516</v>
+        <v>11.20429394811011</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.050665012308416</v>
+        <v>3.697423466514661</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.6439500663625</v>
+        <v>31.99236605557427</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.34202691198191</v>
+        <v>15.8229347014029</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.84619519959203</v>
+        <v>17.4220617027899</v>
       </c>
       <c r="N22">
-        <v>17.69126943330318</v>
+        <v>23.30429875193767</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.46419493396504</v>
+        <v>14.80777795929783</v>
       </c>
       <c r="C23">
-        <v>18.05553516348422</v>
+        <v>12.4524990740299</v>
       </c>
       <c r="D23">
-        <v>9.398195443573597</v>
+        <v>6.627582602386335</v>
       </c>
       <c r="E23">
-        <v>16.59287594254417</v>
+        <v>11.10338720528247</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.05554845943926</v>
+        <v>3.698798012567103</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.26961157574328</v>
+        <v>31.92037040836858</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.9155745785494</v>
+        <v>15.73238936622759</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.38988897431051</v>
+        <v>17.33592012192489</v>
       </c>
       <c r="N23">
-        <v>17.64208707339701</v>
+        <v>23.29688493449041</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.76530823903238</v>
+        <v>14.37845481906742</v>
       </c>
       <c r="C24">
-        <v>16.54632701038911</v>
+        <v>12.01030626792858</v>
       </c>
       <c r="D24">
-        <v>8.625429514341196</v>
+        <v>6.421484390679097</v>
       </c>
       <c r="E24">
-        <v>15.17999920129221</v>
+        <v>10.71854801844752</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.074027807882368</v>
+        <v>3.704195105472109</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.87240425717429</v>
+        <v>31.65534452793234</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.25594351025153</v>
+        <v>15.39237011486904</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.61647288138334</v>
+        <v>17.01415918194661</v>
       </c>
       <c r="N24">
-        <v>17.47361539866671</v>
+        <v>23.27179491040278</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.82498604309018</v>
+        <v>13.91734166706539</v>
       </c>
       <c r="C25">
-        <v>14.87124528800259</v>
+        <v>11.52776179117589</v>
       </c>
       <c r="D25">
-        <v>7.741983860695704</v>
+        <v>6.198646894093115</v>
       </c>
       <c r="E25">
-        <v>13.57726081595289</v>
+        <v>10.30023474216389</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.094107285730166</v>
+        <v>3.710429025671207</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.40489862326538</v>
+        <v>31.38651264772886</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.36182071727386</v>
+        <v>15.03378441015925</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.59659659317846</v>
+        <v>16.67836751455353</v>
       </c>
       <c r="N25">
-        <v>17.32514563372445</v>
+        <v>23.25111453338247</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_141/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_141/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.58242506653322</v>
+        <v>15.29625336990219</v>
       </c>
       <c r="C2">
-        <v>11.17072946123901</v>
+        <v>13.64055689695948</v>
       </c>
       <c r="D2">
-        <v>6.035509846248532</v>
+        <v>7.04503013974657</v>
       </c>
       <c r="E2">
-        <v>9.992111519605857</v>
+        <v>12.32131925485835</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.715378354171635</v>
+        <v>2.10917451580525</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.20382436938653</v>
+        <v>26.35595138662558</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.77870675430539</v>
+        <v>14.86988724229177</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.44242788566918</v>
+        <v>16.00815624626159</v>
       </c>
       <c r="N2">
-        <v>23.24136519306006</v>
+        <v>17.24021987300573</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.35983330404993</v>
+        <v>14.194714835069</v>
       </c>
       <c r="C3">
-        <v>10.92935357479295</v>
+        <v>12.77219696249337</v>
       </c>
       <c r="D3">
-        <v>5.926274958308508</v>
+        <v>6.542142443840337</v>
       </c>
       <c r="E3">
-        <v>9.784645733394083</v>
+        <v>11.41934128145306</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.718959085805852</v>
+        <v>2.119628541750705</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>31.089795164705</v>
+        <v>25.66442774226094</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.61237133735311</v>
+        <v>13.98132310953541</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.29035581603003</v>
+        <v>14.94350000250387</v>
       </c>
       <c r="N3">
-        <v>23.23816691146897</v>
+        <v>17.19603962854147</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.22583735744279</v>
+        <v>13.56907514504783</v>
       </c>
       <c r="C4">
-        <v>10.7820280801196</v>
+        <v>12.22238169484422</v>
       </c>
       <c r="D4">
-        <v>5.860112251089164</v>
+        <v>6.239795914395571</v>
       </c>
       <c r="E4">
-        <v>9.658427016135146</v>
+        <v>10.84744890105313</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.721270185053882</v>
+        <v>2.126186366065199</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.02468429041672</v>
+        <v>25.24945912722071</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.5137719216285</v>
+        <v>13.4367248406391</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.20108916562506</v>
+        <v>14.39574763671362</v>
       </c>
       <c r="N4">
-        <v>23.23788174295171</v>
+        <v>17.17496076242855</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.17198345065281</v>
+        <v>13.31349342401727</v>
       </c>
       <c r="C5">
-        <v>10.72230469026524</v>
+        <v>11.99424128499876</v>
       </c>
       <c r="D5">
-        <v>5.833417559173391</v>
+        <v>6.125635162693262</v>
       </c>
       <c r="E5">
-        <v>9.607362030171597</v>
+        <v>10.64125672608602</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.72224037930883</v>
+        <v>2.128896281972366</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.999395496709</v>
+        <v>25.0828064938932</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.4745251740185</v>
+        <v>13.2115432160043</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.16578042985412</v>
+        <v>14.1700721723959</v>
       </c>
       <c r="N5">
-        <v>23.23818727621689</v>
+        <v>17.16781582614468</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.16308862294391</v>
+        <v>13.27075271365979</v>
       </c>
       <c r="C6">
-        <v>10.71240926759761</v>
+        <v>11.95611582906496</v>
       </c>
       <c r="D6">
-        <v>5.829002192160041</v>
+        <v>6.106553626091959</v>
       </c>
       <c r="E6">
-        <v>9.598907341773497</v>
+        <v>10.60680154219394</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.722403197986848</v>
+        <v>2.129348601355971</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.99527177725687</v>
+        <v>25.05528294567361</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.46806593546523</v>
+        <v>13.17396171496781</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.15998294970997</v>
+        <v>14.132456979032</v>
       </c>
       <c r="N6">
-        <v>23.23826347014861</v>
+        <v>17.16671454759038</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.22510792442555</v>
+        <v>13.56564860948707</v>
       </c>
       <c r="C7">
-        <v>10.78122124058966</v>
+        <v>12.21932129101449</v>
       </c>
       <c r="D7">
-        <v>5.859751104257461</v>
+        <v>6.238264753951159</v>
       </c>
       <c r="E7">
-        <v>9.657736735069362</v>
+        <v>10.84468275229162</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.721283154288592</v>
+        <v>2.126222757619115</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.02433818445372</v>
+        <v>25.24720162560757</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.51323878898742</v>
+        <v>13.43370086215279</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.20060860948099</v>
+        <v>14.39271377045357</v>
       </c>
       <c r="N7">
-        <v>23.23788415648728</v>
+        <v>17.17485865010826</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.50516680330642</v>
+        <v>14.92325566675002</v>
       </c>
       <c r="C8">
-        <v>11.08737486396151</v>
+        <v>13.3446423962079</v>
       </c>
       <c r="D8">
-        <v>5.997680537203114</v>
+        <v>6.874819641164827</v>
       </c>
       <c r="E8">
-        <v>9.920381249492511</v>
+        <v>12.0156451871152</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.716589703963101</v>
+        <v>2.11275184062449</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31.16349659868983</v>
+        <v>26.1155295553482</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.72064924004343</v>
+        <v>14.55082755597681</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.38916324400694</v>
+        <v>15.62084890364553</v>
       </c>
       <c r="N8">
-        <v>23.23991383635909</v>
+        <v>17.22368407317946</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.07215244762709</v>
+        <v>17.49368251432555</v>
       </c>
       <c r="C9">
-        <v>11.69079095301951</v>
+        <v>15.42582854871825</v>
       </c>
       <c r="D9">
-        <v>6.273660504996846</v>
+        <v>8.04657107526455</v>
       </c>
       <c r="E9">
-        <v>10.44134639904463</v>
+        <v>14.12842540250997</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.708273618556911</v>
+        <v>2.087309178617458</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>31.47473803112514</v>
+        <v>27.89422467252327</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.1533128585997</v>
+        <v>17.0144843233525</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.78982985850837</v>
+        <v>18.2921456817919</v>
       </c>
       <c r="N9">
-        <v>23.25722896018469</v>
+        <v>17.37110639036498</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.49495908945291</v>
+        <v>19.23452339583356</v>
       </c>
       <c r="C10">
-        <v>12.1309010424839</v>
+        <v>16.96178497455734</v>
       </c>
       <c r="D10">
-        <v>6.477528467507958</v>
+        <v>8.838919871648599</v>
       </c>
       <c r="E10">
-        <v>10.82337164632979</v>
+        <v>15.56925917864227</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.702697980586468</v>
+        <v>2.069008753163148</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.72596768662151</v>
+        <v>29.24834134664212</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.48410547554685</v>
+        <v>18.71417721347535</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.10068152782674</v>
+        <v>20.10576055765157</v>
       </c>
       <c r="N10">
-        <v>23.27810216554676</v>
+        <v>17.51650921052883</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.68770575531689</v>
+        <v>19.99683996678217</v>
       </c>
       <c r="C11">
-        <v>12.32941563050344</v>
+        <v>17.63900215435399</v>
       </c>
       <c r="D11">
-        <v>6.570055200391582</v>
+        <v>9.185669255504246</v>
       </c>
       <c r="E11">
-        <v>10.99614034561774</v>
+        <v>16.20321912109385</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.700275973756063</v>
+        <v>2.06071687275869</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.84495709523587</v>
+        <v>29.87547083744929</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.63676306509198</v>
+        <v>19.45887139241677</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.24514370095895</v>
+        <v>20.90150360412969</v>
       </c>
       <c r="N11">
-        <v>23.28937154302067</v>
+        <v>17.59210034309069</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.76067600407725</v>
+        <v>20.28148509096982</v>
       </c>
       <c r="C12">
-        <v>12.40426664398811</v>
+        <v>17.89257259006688</v>
       </c>
       <c r="D12">
-        <v>6.605025538141324</v>
+        <v>9.315114322423209</v>
       </c>
       <c r="E12">
-        <v>11.06134951490199</v>
+        <v>16.44044909156794</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.699375155080495</v>
+        <v>2.057576741819352</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.89067273564956</v>
+        <v>30.11466868575152</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.69483045016303</v>
+        <v>19.73701425515229</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.30024110637907</v>
+        <v>21.19890664443225</v>
       </c>
       <c r="N12">
-        <v>23.29389412181357</v>
+        <v>17.62221363233794</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.74496259506959</v>
+        <v>20.22035683000942</v>
       </c>
       <c r="C13">
-        <v>12.38816166671574</v>
+        <v>17.8380857854322</v>
       </c>
       <c r="D13">
-        <v>6.597497621511731</v>
+        <v>9.287316947242886</v>
       </c>
       <c r="E13">
-        <v>11.04731614563717</v>
+        <v>16.38947917803976</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.699568437316376</v>
+        <v>2.05825311868698</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.88079815851081</v>
+        <v>30.06307438772345</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.68231392451523</v>
+        <v>19.67727855887768</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.2883581723601</v>
+        <v>21.13502538034055</v>
       </c>
       <c r="N13">
-        <v>23.29290875825188</v>
+        <v>17.61565976056739</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.69370987187053</v>
+        <v>20.02033719310016</v>
       </c>
       <c r="C14">
-        <v>12.3355805578378</v>
+        <v>17.65991984011826</v>
       </c>
       <c r="D14">
-        <v>6.57293378927203</v>
+        <v>9.196355422594529</v>
       </c>
       <c r="E14">
-        <v>11.00150982203092</v>
+        <v>16.22279146855756</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.700201535927572</v>
+        <v>2.060458566431222</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.84870509787449</v>
+        <v>29.89511452742503</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.64153541565759</v>
+        <v>19.48183017192118</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.24966899470029</v>
+        <v>20.92604810182098</v>
       </c>
       <c r="N14">
-        <v>23.28973850579132</v>
+        <v>17.59454715015893</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.66231140234343</v>
+        <v>19.89730218185039</v>
       </c>
       <c r="C15">
-        <v>12.30332890641283</v>
+        <v>17.55042040427926</v>
       </c>
       <c r="D15">
-        <v>6.557877875174434</v>
+        <v>9.140399862846333</v>
       </c>
       <c r="E15">
-        <v>10.97342221576212</v>
+        <v>16.12032902269406</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.700591452310842</v>
+        <v>2.061809286351683</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.82913212762606</v>
+        <v>29.79246221097138</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.61658956947484</v>
+        <v>19.36161783858643</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.22602051295473</v>
+        <v>20.79754098121643</v>
       </c>
       <c r="N15">
-        <v>23.28782985617356</v>
+        <v>17.5818130358472</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.48236418724899</v>
+        <v>19.18412747390996</v>
       </c>
       <c r="C16">
-        <v>12.11788673706325</v>
+        <v>16.91711210438852</v>
       </c>
       <c r="D16">
-        <v>6.4714741440949</v>
+        <v>8.815992364520719</v>
       </c>
       <c r="E16">
-        <v>10.81205441551968</v>
+        <v>15.52741696975256</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.702858557057346</v>
+        <v>2.069550905632129</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.71828446208074</v>
+        <v>29.20758989472725</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.47416815712499</v>
+        <v>18.66495615977006</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.09129808124808</v>
+        <v>20.05319110318069</v>
       </c>
       <c r="N16">
-        <v>23.27740138586913</v>
+        <v>17.5117700420729</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.37202125942325</v>
+        <v>18.73919021463501</v>
       </c>
       <c r="C17">
-        <v>12.00363273595752</v>
+        <v>16.52323253450789</v>
       </c>
       <c r="D17">
-        <v>6.418386810633543</v>
+        <v>8.61354446662865</v>
       </c>
       <c r="E17">
-        <v>10.71275026899087</v>
+        <v>15.15835220195624</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.704278572873202</v>
+        <v>2.074305299137627</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.65147426120604</v>
+        <v>28.85170979518156</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.38731669001085</v>
+        <v>18.23043945034016</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.00939958000737</v>
+        <v>19.5892481416502</v>
       </c>
       <c r="N17">
-        <v>23.27145826298138</v>
+        <v>17.47130861630042</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.30859798857735</v>
+        <v>18.48047256012624</v>
       </c>
       <c r="C18">
-        <v>11.93776184308299</v>
+        <v>16.294644955014</v>
       </c>
       <c r="D18">
-        <v>6.387834358138736</v>
+        <v>8.495805726313096</v>
       </c>
       <c r="E18">
-        <v>10.65554133300903</v>
+        <v>14.94403704069645</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.705106100535227</v>
+        <v>2.077043344353446</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.61349077953394</v>
+        <v>28.64805546900461</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.33757028799079</v>
+        <v>17.97781782918261</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.96258402555658</v>
+        <v>19.31962571712818</v>
       </c>
       <c r="N18">
-        <v>23.26820692311336</v>
+        <v>17.44891685831099</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.28713376521877</v>
+        <v>18.39238754350223</v>
       </c>
       <c r="C19">
-        <v>11.91543494030179</v>
+        <v>16.21689311041019</v>
       </c>
       <c r="D19">
-        <v>6.377487874417449</v>
+        <v>8.455715720865566</v>
       </c>
       <c r="E19">
-        <v>10.63615774736265</v>
+        <v>14.871116250727</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.705388140502738</v>
+        <v>2.077971130844341</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.60070705406089</v>
+        <v>28.57927719049978</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.32076442935258</v>
+        <v>17.89181400088382</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.94678435002463</v>
+        <v>19.22785156604765</v>
       </c>
       <c r="N19">
-        <v>23.26713475400591</v>
+        <v>17.44148290009189</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.38376356695482</v>
+        <v>18.7868429263798</v>
       </c>
       <c r="C20">
-        <v>12.01581189736812</v>
+        <v>16.56537123055431</v>
       </c>
       <c r="D20">
-        <v>6.424040184720166</v>
+        <v>8.635228786200512</v>
       </c>
       <c r="E20">
-        <v>10.72333137533005</v>
+        <v>15.19784906445276</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.704126295656343</v>
+        <v>2.073798863088921</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.65854050883289</v>
+        <v>28.88948566681442</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.39654101433374</v>
+        <v>18.27697218022032</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.01808810585706</v>
+        <v>19.63892089253425</v>
       </c>
       <c r="N20">
-        <v>23.272073635893</v>
+        <v>17.47552377002226</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.70876515243896</v>
+        <v>20.07919514293912</v>
       </c>
       <c r="C21">
-        <v>12.35103424961367</v>
+        <v>17.71232767701107</v>
       </c>
       <c r="D21">
-        <v>6.580150899842055</v>
+        <v>9.223122624372811</v>
       </c>
       <c r="E21">
-        <v>11.01497059959261</v>
+        <v>16.27182651020129</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.700015136814427</v>
+        <v>2.059810820337794</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.85811393917853</v>
+        <v>29.94440062847921</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.65350644421695</v>
+        <v>19.53934068991019</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.26102265822023</v>
+        <v>20.98753396068138</v>
       </c>
       <c r="N21">
-        <v>23.29066276254567</v>
+        <v>17.60070692549972</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.92102933905531</v>
+        <v>20.90047483676666</v>
       </c>
       <c r="C22">
-        <v>12.5682106855194</v>
+        <v>18.44528883802223</v>
       </c>
       <c r="D22">
-        <v>6.681768813560309</v>
+        <v>9.596554974211397</v>
       </c>
       <c r="E22">
-        <v>11.20429394811011</v>
+        <v>16.95733885093519</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.697423466514661</v>
+        <v>2.050665012308148</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>31.99236605557427</v>
+        <v>30.64395006636262</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.8229347014029</v>
+        <v>20.34202691198197</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.4220617027899</v>
+        <v>21.8461951995921</v>
       </c>
       <c r="N22">
-        <v>23.30429875193767</v>
+        <v>17.69126943330327</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.80777795929783</v>
+        <v>20.46419493396505</v>
       </c>
       <c r="C23">
-        <v>12.4524990740299</v>
+        <v>18.05553516348407</v>
       </c>
       <c r="D23">
-        <v>6.627582602386335</v>
+        <v>9.398195443573506</v>
       </c>
       <c r="E23">
-        <v>11.10338720528247</v>
+        <v>16.59287594254409</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.698798012567103</v>
+        <v>2.055548459439252</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.92037040836858</v>
+        <v>30.26961157574335</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.73238936622759</v>
+        <v>19.91557457854937</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.33592012192489</v>
+        <v>21.38988897431042</v>
       </c>
       <c r="N23">
-        <v>23.29688493449041</v>
+        <v>17.64208707339705</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.37845481906742</v>
+        <v>18.76530823903234</v>
       </c>
       <c r="C24">
-        <v>12.01030626792858</v>
+        <v>16.54632701038911</v>
       </c>
       <c r="D24">
-        <v>6.421484390679097</v>
+        <v>8.625429514341237</v>
       </c>
       <c r="E24">
-        <v>10.71854801844752</v>
+        <v>15.17999920129223</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.704195105472109</v>
+        <v>2.074027807882505</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.65534452793234</v>
+        <v>28.87240425717433</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.39237011486904</v>
+        <v>18.25594351025155</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.01415918194661</v>
+        <v>19.61647288138334</v>
       </c>
       <c r="N24">
-        <v>23.27179491040278</v>
+        <v>17.47361539866674</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.91734166706539</v>
+        <v>16.8249860430902</v>
       </c>
       <c r="C25">
-        <v>11.52776179117589</v>
+        <v>14.87124528800259</v>
       </c>
       <c r="D25">
-        <v>6.198646894093115</v>
+        <v>7.741983860695709</v>
       </c>
       <c r="E25">
-        <v>10.30023474216389</v>
+        <v>13.57726081595288</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.710429025671207</v>
+        <v>2.094107285730035</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>31.38651264772886</v>
+        <v>27.40489862326543</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.03378441015925</v>
+        <v>16.36182071727388</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.67836751455353</v>
+        <v>17.59659659317847</v>
       </c>
       <c r="N25">
-        <v>23.25111453338247</v>
+        <v>17.32514563372448</v>
       </c>
       <c r="O25">
         <v>0</v>
